--- a/DATA_goal/Junction_Flooding_427.xlsx
+++ b/DATA_goal/Junction_Flooding_427.xlsx
@@ -967,103 +967,103 @@
         <v>44782.44444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.51</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.46</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.07</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.67</v>
+        <v>6.65</v>
       </c>
       <c r="F5" s="4" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="G5" s="4" t="n">
         <v>0.68</v>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="H5" s="4" t="n">
-        <v>0.45</v>
+        <v>4.54</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.87</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.21</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.4</v>
+        <v>4.05</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.19</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.3</v>
+        <v>2.98</v>
       </c>
       <c r="Q5" s="4" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.33</v>
       </c>
-      <c r="R5" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="Z5" s="4" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.62</v>
       </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.94</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.12</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_427.xlsx
+++ b/DATA_goal/Junction_Flooding_427.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.42361111111</v>
+        <v>45108.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>8.821999999999999</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>6.243</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>2.794</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>19.605</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>14.205</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>5.893</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>19.279</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>10.957</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>4.563</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>5.697</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>7.759</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>8.683999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>2.881</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>7.143</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>9.409000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>6.779</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>1.556</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.752</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>101.319</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>19.6</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>6.594</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>12.192</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>6.907</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>0.798</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>11.548</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>5.824</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>5.505</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>6.107</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>8.566000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>2.095</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>16.882</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>3.332</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>8.242000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.43055555555</v>
+        <v>45108.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0</v>
+        <v>4.595</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0</v>
+        <v>3.285</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>1.242</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>10.437</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>7.589</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>3.018</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>15.191</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0</v>
+        <v>5.733</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0</v>
+        <v>2.562</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0</v>
+        <v>2.933</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0</v>
+        <v>4.131</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>4.622</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>1.526</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0</v>
+        <v>3.76</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0</v>
+        <v>5.018</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0</v>
+        <v>3.671</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>0.713</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.423</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>49.914</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0</v>
+        <v>10.634</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0</v>
+        <v>3.47</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0</v>
+        <v>6.648</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0</v>
+        <v>3.61</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0</v>
+        <v>0.445</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0</v>
+        <v>8.475</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0</v>
+        <v>3.065</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0</v>
+        <v>2.928</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0</v>
+        <v>3.332</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0</v>
+        <v>4.489</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>0.973</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0</v>
+        <v>14.271</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0</v>
+        <v>1.719</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.4375</v>
+        <v>45108.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0</v>
+        <v>21.94</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0</v>
+        <v>16.384</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>1.437</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0</v>
+        <v>48.077</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0</v>
+        <v>39.06</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>16.845</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0</v>
+        <v>62.578</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0</v>
+        <v>26.685</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0</v>
+        <v>12.021</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0</v>
+        <v>17.271</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0</v>
+        <v>19.262</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0</v>
+        <v>20.555</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0</v>
+        <v>5.767</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0</v>
+        <v>17.294</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0</v>
+        <v>24.442</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0</v>
+        <v>14.72</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>0.626</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.851</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>255.909</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0</v>
+        <v>48.261</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0</v>
+        <v>15.963</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0</v>
+        <v>32.302</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0</v>
+        <v>17.061</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0</v>
+        <v>2.244</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0</v>
+        <v>31.968</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0</v>
+        <v>14.1</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0</v>
+        <v>12.539</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0</v>
+        <v>20.328</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.644</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0</v>
+        <v>56.903</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0</v>
+        <v>8.917999999999999</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0</v>
+        <v>19.958</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.44444444445</v>
+        <v>45108.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.51</v>
+        <v>23.41</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.46</v>
+        <v>17.52</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>2.07</v>
+        <v>1.3</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>6.65</v>
+        <v>51.21</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>6.83</v>
+        <v>41.83</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.68</v>
+        <v>18.1</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.54</v>
+        <v>71.88</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>3.74</v>
+        <v>28.44</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.87</v>
+        <v>12.85</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2</v>
+        <v>18.59</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.21</v>
+        <v>20.53</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.05</v>
+        <v>21.86</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.43</v>
+        <v>6.08</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.19</v>
+        <v>18.42</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.98</v>
+        <v>26.14</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.31</v>
+        <v>15.56</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>1.81</v>
+        <v>0.53</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>3.69</v>
+        <v>0.85</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>30.5</v>
+        <v>273.1</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.49</v>
+        <v>51.53</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.5</v>
+        <v>17</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.76</v>
+        <v>34.61</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.15</v>
+        <v>18.21</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.33</v>
+        <v>2.4</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>6.22</v>
+        <v>35.59</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.64</v>
+        <v>15.02</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.02</v>
+        <v>13.31</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.55</v>
+        <v>15.63</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.08</v>
+        <v>21.63</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.62</v>
+        <v>0.48</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.94</v>
+        <v>65.47</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.12</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.68</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.45137731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>21.61</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>25.47</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>112.3</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>21.07</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>14.55</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>23.08</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.66</v>
+        <v>21.26</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_427.xlsx
+++ b/DATA_goal/Junction_Flooding_427.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="6" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
-    <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="8" customWidth="1" min="32" max="32"/>
-    <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="33" max="33"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45108.50694444445</v>
+        <v>44782.42361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>8.821999999999999</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.243</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.794</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>19.605</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>14.205</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.893</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>19.279</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>10.957</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.563</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.697</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.759</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.683999999999999</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.881</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.143</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>9.409000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>6.779</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.556</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.752</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>101.319</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>19.6</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.594</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>12.192</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.907</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.798</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>11.548</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>5.824</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.505</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.107</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.566000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.095</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>16.882</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.332</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>8.242000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45108.51388888889</v>
+        <v>44782.43055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.595</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.285</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.242</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>10.437</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>7.589</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.018</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>15.191</v>
+        <v>0</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>5.733</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.562</v>
+        <v>0</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.933</v>
+        <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.131</v>
+        <v>0</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.622</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.526</v>
+        <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.76</v>
+        <v>0</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>5.018</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.671</v>
+        <v>0</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.713</v>
+        <v>0</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.423</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>49.914</v>
+        <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>10.634</v>
+        <v>0</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.47</v>
+        <v>0</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>6.648</v>
+        <v>0</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.61</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.445</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>8.475</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.065</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.928</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.332</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.489</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.973</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>14.271</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.719</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45108.52083333334</v>
+        <v>44782.4375</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>21.94</v>
+        <v>0</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>16.384</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.437</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>48.077</v>
+        <v>0</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>39.06</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>16.845</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>62.578</v>
+        <v>0</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>26.685</v>
+        <v>0</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>12.021</v>
+        <v>0</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>17.271</v>
+        <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>19.262</v>
+        <v>0</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>20.555</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.767</v>
+        <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>17.294</v>
+        <v>0</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>24.442</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>14.72</v>
+        <v>0</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.626</v>
+        <v>0</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.851</v>
+        <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>255.909</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>48.261</v>
+        <v>0</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>15.963</v>
+        <v>0</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>32.302</v>
+        <v>0</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>17.061</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.244</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>31.968</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>14.1</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>12.539</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>14.7</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>20.328</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.644</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>56.903</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>8.917999999999999</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>19.958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45108.52777777778</v>
+        <v>44782.44444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>23.41</v>
+        <v>2.507</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>17.52</v>
+        <v>2.464</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.3</v>
+        <v>2.07</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>51.21</v>
+        <v>6.654</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>41.83</v>
+        <v>6.826</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>18.1</v>
+        <v>0.676</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>71.88</v>
+        <v>4.541</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>28.44</v>
+        <v>3.74</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.85</v>
+        <v>1.868</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>18.59</v>
+        <v>1.996</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>20.53</v>
+        <v>3.207</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>21.86</v>
+        <v>4.046</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>6.08</v>
+        <v>0.426</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>18.42</v>
+        <v>2.189</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>26.14</v>
+        <v>2.979</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>15.56</v>
+        <v>3.306</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.53</v>
+        <v>1.81</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.85</v>
+        <v>3.693</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>273.1</v>
+        <v>30.503</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>51.53</v>
+        <v>4.495</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>17</v>
+        <v>1.5</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>34.61</v>
+        <v>3.758</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>18.21</v>
+        <v>3.149</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.4</v>
+        <v>0.334</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>35.59</v>
+        <v>6.223</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>15.02</v>
+        <v>1.637</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.31</v>
+        <v>1.018</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>15.63</v>
+        <v>1.548</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>21.63</v>
+        <v>3.083</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.48</v>
+        <v>0.623</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>65.47</v>
+        <v>4.938</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>2.12</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>21.26</v>
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44782.45137731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>21.61</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>25.47</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>112.3</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>21.07</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>23.08</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>8.66</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_427.xlsx
+++ b/DATA_goal/Junction_Flooding_427.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.42361111111</v>
+        <v>45108.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>8.821999999999999</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>6.243</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>2.794</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>19.605</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>14.205</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>5.893</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>19.279</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>10.957</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>4.563</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>5.697</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>7.759</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>8.683999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>2.881</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>7.143</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>9.409000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>6.779</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>1.556</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.752</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>101.319</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>19.6</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>6.594</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>12.192</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>6.907</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>0.798</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>11.548</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>5.824</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>5.505</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>6.107</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>8.566000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>2.095</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>16.882</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>3.332</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>8.242000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.43055555555</v>
+        <v>45108.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0</v>
+        <v>4.595</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0</v>
+        <v>3.285</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>1.242</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>10.437</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>7.589</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>3.018</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>15.191</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0</v>
+        <v>5.733</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0</v>
+        <v>2.562</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0</v>
+        <v>2.933</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0</v>
+        <v>4.131</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>4.622</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>1.526</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0</v>
+        <v>3.76</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0</v>
+        <v>5.018</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0</v>
+        <v>3.671</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>0.713</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.423</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>49.914</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0</v>
+        <v>10.634</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0</v>
+        <v>3.47</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0</v>
+        <v>6.648</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0</v>
+        <v>3.61</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0</v>
+        <v>0.445</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0</v>
+        <v>8.475</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0</v>
+        <v>3.065</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0</v>
+        <v>2.928</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0</v>
+        <v>3.332</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0</v>
+        <v>4.489</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>0.973</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0</v>
+        <v>14.271</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0</v>
+        <v>1.719</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.4375</v>
+        <v>45108.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0</v>
+        <v>21.94</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0</v>
+        <v>16.384</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>1.437</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0</v>
+        <v>48.077</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0</v>
+        <v>39.06</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>16.845</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0</v>
+        <v>62.578</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0</v>
+        <v>26.685</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0</v>
+        <v>12.021</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0</v>
+        <v>17.271</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0</v>
+        <v>19.262</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0</v>
+        <v>20.555</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0</v>
+        <v>5.767</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0</v>
+        <v>17.294</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0</v>
+        <v>24.442</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0</v>
+        <v>14.72</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>0.626</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.851</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>255.909</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0</v>
+        <v>48.261</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0</v>
+        <v>15.963</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0</v>
+        <v>32.302</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0</v>
+        <v>17.061</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0</v>
+        <v>2.244</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0</v>
+        <v>31.968</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0</v>
+        <v>14.1</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0</v>
+        <v>12.539</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0</v>
+        <v>20.328</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.644</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0</v>
+        <v>56.903</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0</v>
+        <v>8.917999999999999</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0</v>
+        <v>19.958</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.44444444445</v>
+        <v>45108.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.507</v>
+        <v>23.41</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.464</v>
+        <v>17.52</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>2.07</v>
+        <v>1.3</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>6.654</v>
+        <v>51.21</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>6.826</v>
+        <v>41.83</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.676</v>
+        <v>18.1</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.541</v>
+        <v>71.88</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>3.74</v>
+        <v>28.44</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.868</v>
+        <v>12.85</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.996</v>
+        <v>18.59</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.207</v>
+        <v>20.53</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.046</v>
+        <v>21.86</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.426</v>
+        <v>6.08</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.189</v>
+        <v>18.42</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.979</v>
+        <v>26.14</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.306</v>
+        <v>15.56</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>1.81</v>
+        <v>0.53</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>3.693</v>
+        <v>0.85</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>30.503</v>
+        <v>273.1</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.495</v>
+        <v>51.53</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.5</v>
+        <v>17</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.758</v>
+        <v>34.61</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.149</v>
+        <v>18.21</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.334</v>
+        <v>2.4</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>6.223</v>
+        <v>35.59</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.637</v>
+        <v>15.02</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.018</v>
+        <v>13.31</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.548</v>
+        <v>15.63</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.083</v>
+        <v>21.63</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.623</v>
+        <v>0.48</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.938</v>
+        <v>65.47</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.12</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.68</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.45137731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>21.61</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>25.47</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>112.3</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>21.07</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>14.55</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>23.08</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.66</v>
+        <v>21.26</v>
       </c>
     </row>
   </sheetData>
